--- a/src/main/resources/TestData/TestData.xlsx
+++ b/src/main/resources/TestData/TestData.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15585" windowHeight="6525" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15585" windowHeight="6525" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="MobileProduct" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t xml:space="preserve">sachin </t>
   </si>
@@ -85,24 +85,12 @@
     <t>TC3</t>
   </si>
   <si>
-    <t>name1</t>
-  </si>
-  <si>
-    <t>name2</t>
-  </si>
-  <si>
-    <t>name3</t>
-  </si>
-  <si>
     <t>Apple</t>
   </si>
   <si>
     <t>Nokia</t>
   </si>
   <si>
-    <t>Samsung</t>
-  </si>
-  <si>
     <t>ram</t>
   </si>
   <si>
@@ -119,6 +107,27 @@
   </si>
   <si>
     <t>dhoni</t>
+  </si>
+  <si>
+    <t>Product1</t>
+  </si>
+  <si>
+    <t>Product3</t>
+  </si>
+  <si>
+    <t>Product2</t>
+  </si>
+  <si>
+    <t>Price1</t>
+  </si>
+  <si>
+    <t>Price2</t>
+  </si>
+  <si>
+    <t>Price3</t>
+  </si>
+  <si>
+    <t>SamSung</t>
   </si>
 </sst>
 </file>
@@ -538,7 +547,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,34 +603,104 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="2">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>90</v>
+      </c>
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
+      <c r="G2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -633,7 +712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -641,7 +720,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>15</v>
@@ -649,7 +728,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>20</v>
@@ -657,10 +736,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -673,10 +752,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
